--- a/01_Tasks/Docs/Lab1/Lab01_ReviewReport.xlsx
+++ b/01_Tasks/Docs/Lab1/Lab01_ReviewReport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\An3\VVSS\Lab01\CheckListsAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\An3\VVSS\VVSS-Genesis\01_Tasks\Docs\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -250,19 +250,307 @@
   </si>
   <si>
     <t>Intre controler si DataService trebuie sa fie agredare nu compunere</t>
+  </si>
+  <si>
+    <t>ArrayTaskList 142</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ArrayTaskList tasks </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ArrayTaskList();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ArrayTaskList newTasks </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ArrayTaskList();</t>
+    </r>
+  </si>
+  <si>
+    <t>Ivan Iazbela</t>
+  </si>
+  <si>
+    <t>ArrayTaskList 56</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(task.equals(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(task==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>TaskService 31</t>
+  </si>
+  <si>
+    <t>//Iterable&lt;Task&gt; filtered = tasks.incoming(start, end);</t>
+  </si>
+  <si>
+    <t>Nu mai e</t>
+  </si>
+  <si>
+    <t>Notificator 56</t>
+  </si>
+  <si>
+    <t>NeEditController 204</t>
+  </si>
+  <si>
+    <r>
+      <t>System</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.println(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF080808"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.info(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF080808"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>catch (InterruptedException e) {log.error("thread interrupted exception");}</t>
+  </si>
+  <si>
+    <t>catch (InterruptedException e) {log.error("thread interrupted exception");Thread.currentThread().interrupt();}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -346,6 +634,73 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF080808"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0033B3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF080808"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF8C8C8C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF871094"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF871094"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -448,83 +803,96 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,6 +909,231 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3924632</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>266718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagine 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="1722120"/>
+          <a:ext cx="3833192" cy="205758"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6751902</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>426751</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagine 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2613660" y="1958340"/>
+          <a:ext cx="6713802" cy="358171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4038943</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>274337</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagine 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2651760" y="2446020"/>
+          <a:ext cx="3962743" cy="190517"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5570692</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>297200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagine 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2697480" y="2804160"/>
+          <a:ext cx="5448772" cy="228620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3795072</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>266718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagine 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2773680" y="3116580"/>
+          <a:ext cx="3596952" cy="205758"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -836,7 +1429,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1155,7 +1748,7 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1467,7 +2060,7 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1805,18 +2398,18 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="98.88671875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="49" style="6" customWidth="1"/>
     <col min="7" max="8" width="8.88671875" style="6"/>
     <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="6"/>
@@ -1852,8 +2445,12 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="18">
+        <v>234</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="17" t="s">
@@ -1905,54 +2502,84 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="39" t="s">
+        <v>76</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E10" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="39" t="s">
+        <v>80</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E11" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E12" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
@@ -2136,5 +2763,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>